--- a/AT3/datas/teste-aderencia-AMSTEL LAGER_normal.xlsx
+++ b/AT3/datas/teste-aderencia-AMSTEL LAGER_normal.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,18 +451,17 @@
     <col width="9.9" customWidth="1" min="4" max="4"/>
     <col width="13.2" customWidth="1" min="5" max="5"/>
     <col width="9.9" customWidth="1" min="6" max="6"/>
-    <col width="2.2" customWidth="1" min="7" max="7"/>
-    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="14.3" customWidth="1" min="8" max="8"/>
     <col width="14.3" customWidth="1" min="9" max="9"/>
-    <col width="14.3" customWidth="1" min="10" max="10"/>
-    <col width="8.800000000000001" customWidth="1" min="11" max="11"/>
-    <col width="9.9" customWidth="1" min="12" max="12"/>
-    <col width="18.7" customWidth="1" min="13" max="13"/>
-    <col width="9.9" customWidth="1" min="14" max="14"/>
+    <col width="8.800000000000001" customWidth="1" min="10" max="10"/>
+    <col width="9.9" customWidth="1" min="11" max="11"/>
+    <col width="18.7" customWidth="1" min="12" max="12"/>
+    <col width="9.9" customWidth="1" min="13" max="13"/>
+    <col width="19.8" customWidth="1" min="14" max="14"/>
     <col width="19.8" customWidth="1" min="15" max="15"/>
-    <col width="19.8" customWidth="1" min="16" max="16"/>
-    <col width="15.4" customWidth="1" min="17" max="17"/>
-    <col width="24.2" customWidth="1" min="18" max="18"/>
+    <col width="15.4" customWidth="1" min="16" max="16"/>
+    <col width="24.2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,58 +495,57 @@
           <t>Ei</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>classes ajustadas</t>
+        </is>
+      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>classes ajustadas</t>
+          <t>Oi ajustado</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Oi ajustado</t>
+          <t>Ei ajustada</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ei ajustada</t>
+          <t>QQI</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>QQI</t>
+          <t>sum(Oi)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>sum(Oi)</t>
+          <t>sum(P(z1&lt;Z&lt;z2))</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>sum(P(z1&lt;Z&lt;z2))</t>
+          <t>sum(Ei)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>sum(Ei)</t>
+          <t>sum(Oi ajustado)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>sum(Oi ajustado)</t>
+          <t>sum(Ei ajustada)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>sum(Ei ajustada)</t>
+          <t>Qui-quadrado</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Qui-quadrado</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Qui-quadrado critico</t>
         </is>
@@ -584,58 +582,57 @@
           <t>8.9035</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>8.9000 |- 9.7952</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>8.9000 |- 9.7952</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8.9035</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>8.9035</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>0.0917</t>
+          <t>122</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
           <t>122</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>122.0</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>19.7317</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>19.7317</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>9.4877</t>
         </is>
@@ -672,34 +669,33 @@
           <t>13.0747</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>9.7952 |- 10.6904</t>
+        </is>
+      </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>9.7952 |- 10.6904</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13.0747</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>13.0747</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
           <t>3.6682</t>
         </is>
       </c>
+      <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr"/>
       <c r="M3" s="2" t="inlineStr"/>
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -732,34 +728,33 @@
           <t>21.16</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.6904 |- 11.5856</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10.6904 |- 11.5856</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21.16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21.16</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
           <t>4.8784</t>
         </is>
       </c>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr"/>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr"/>
       <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -792,34 +787,33 @@
           <t>25.7849</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11.5856 |- 12.4808</t>
+        </is>
+      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11.5856 |- 12.4808</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>25.7849</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25.7849</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
           <t>4.878</t>
         </is>
       </c>
+      <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr"/>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
       <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -852,34 +846,33 @@
           <t>23.659</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12.4808 |- 13.3760</t>
+        </is>
+      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12.4808 |- 13.3760</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23.659</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23.659</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
           <t>4.8022</t>
         </is>
       </c>
+      <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -912,34 +905,33 @@
           <t>16.3456</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.3760 |- 14.2712</t>
+        </is>
+      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13.3760 |- 14.2712</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16.3456</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16.3456</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
           <t>1.3253</t>
         </is>
       </c>
+      <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr"/>
       <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -972,34 +964,33 @@
           <t>8.5025</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14.2712 |- 16.0616</t>
+        </is>
+      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14.2712 |- 16.0616</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13.0723</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13.0723</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
           <t>0.088</t>
         </is>
       </c>
+      <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1043,7 +1034,6 @@
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
